--- a/TestInput enid-p.xlsx
+++ b/TestInput enid-p.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\CO2 TRANSPORT NETWORK MODEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3BCBB2-E6F1-4741-BBBE-3E951B3A995D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422E5DD0-D41F-4528-8011-8CEBACB18D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{715AA4C4-D452-40C8-87FD-9FD8322D773E}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{715AA4C4-D452-40C8-87FD-9FD8322D773E}"/>
   </bookViews>
   <sheets>
     <sheet name="sources" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -75,9 +75,6 @@
     <t>OXBOW CALCINING LLC</t>
   </si>
   <si>
-    <t>Chisholm Plant</t>
-  </si>
-  <si>
     <t>Mustang</t>
   </si>
   <si>
@@ -85,6 +82,42 @@
   </si>
   <si>
     <t>Field Outlet1</t>
+  </si>
+  <si>
+    <t>Purdy Field</t>
+  </si>
+  <si>
+    <t>Redbud Power Plant</t>
+  </si>
+  <si>
+    <t>Horseshoe Lake</t>
+  </si>
+  <si>
+    <t>Cana Gas Plant</t>
+  </si>
+  <si>
+    <t>OHL NGLP Medford Plant</t>
+  </si>
+  <si>
+    <t>i1-i3</t>
+  </si>
+  <si>
+    <t>i10</t>
+  </si>
+  <si>
+    <t>i11</t>
+  </si>
+  <si>
+    <t>Cluster 6</t>
+  </si>
+  <si>
+    <t>Cluster 7</t>
+  </si>
+  <si>
+    <t>Cluster 4</t>
+  </si>
+  <si>
+    <t>TERRA INTERNATIONAL (OKLAHOMA) INC</t>
   </si>
 </sst>
 </file>
@@ -445,16 +478,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE58AF3-FBFD-4B30-B574-CF02EE6C3276}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.83984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.26171875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.15625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.26171875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.83984375" style="1" bestFit="1" customWidth="1"/>
@@ -463,10 +496,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -495,7 +528,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -515,63 +548,143 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1">
-        <v>0.10477599999999999</v>
+        <v>0.52880625000000003</v>
       </c>
       <c r="D3" s="1">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="I3">
-        <v>35.774833333333298</v>
+        <v>35.471166666666598</v>
       </c>
       <c r="J3">
-        <v>-97.741166666666601</v>
+        <v>-97.673333333333304</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1">
-        <v>0.52880625000000003</v>
+        <v>0.62635050000000003</v>
       </c>
       <c r="D4" s="1">
-        <v>1.8</v>
+        <v>75</v>
       </c>
       <c r="I4">
-        <v>35.471166666666598</v>
+        <v>34.628833333333297</v>
       </c>
       <c r="J4">
-        <v>-97.673333333333304</v>
+        <v>-97.168499999999995</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
-        <v>0.62635050000000003</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D5" s="1">
         <v>75</v>
       </c>
       <c r="I5">
-        <v>34.628833333333297</v>
+        <v>35.685299999999998</v>
       </c>
       <c r="J5">
-        <v>-97.168499999999995</v>
+        <v>-97.224199999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>75</v>
+      </c>
+      <c r="I6">
+        <v>35.508899999999997</v>
+      </c>
+      <c r="J6">
+        <v>-97.178899999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>35.534999999999997</v>
+      </c>
+      <c r="J7">
+        <v>-98.099000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>36.776420000000002</v>
+      </c>
+      <c r="J8">
+        <v>-97.756299999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <v>36.437220000000003</v>
+      </c>
+      <c r="J9">
+        <v>-99.471080000000001</v>
       </c>
     </row>
   </sheetData>
@@ -581,10 +694,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE8D3C0-B2DD-4F1C-A03D-5E407E0EBF18}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -636,19 +749,159 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>-55</v>
+        <v>-31</v>
       </c>
       <c r="I2">
         <v>34.381366</v>
       </c>
       <c r="J2">
         <v>-97.748690999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>3.4</v>
+      </c>
+      <c r="D3">
+        <v>-31</v>
+      </c>
+      <c r="I3">
+        <v>34.758454</v>
+      </c>
+      <c r="J3">
+        <v>-97.605064999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>0.33</v>
+      </c>
+      <c r="D4">
+        <v>-31</v>
+      </c>
+      <c r="I4">
+        <v>35.183999999999997</v>
+      </c>
+      <c r="J4">
+        <v>-98.200999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>0.12</v>
+      </c>
+      <c r="D5">
+        <v>-31</v>
+      </c>
+      <c r="I5">
+        <v>34.481999999999999</v>
+      </c>
+      <c r="J5">
+        <v>-97.706999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>0.12</v>
+      </c>
+      <c r="D6">
+        <v>-31</v>
+      </c>
+      <c r="I6">
+        <v>34.506</v>
+      </c>
+      <c r="J6">
+        <v>-97.597999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>3.24</v>
+      </c>
+      <c r="D7">
+        <v>-31</v>
+      </c>
+      <c r="I7">
+        <v>34.472999999999999</v>
+      </c>
+      <c r="J7">
+        <v>-97.441000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D8">
+        <v>-31</v>
+      </c>
+      <c r="I8">
+        <v>34.420999999999999</v>
+      </c>
+      <c r="J8">
+        <v>-97.614000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>1.8</v>
+      </c>
+      <c r="D9">
+        <v>-31</v>
+      </c>
+      <c r="I9">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="J9">
+        <v>-98.295000000000002</v>
       </c>
     </row>
   </sheetData>
